--- a/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB0C96-4480-4E05-8427-1E41DE1ED8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9B3A6-D5E5-476B-A172-BB44E186D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1485" windowWidth="24465" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="24420" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="156">
   <si>
     <t>desc</t>
   </si>
@@ -690,6 +690,13 @@
     <t>chocolate_green_twister_lv1</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>テーマ：クッキー初級コンテスト</t>
+    <rPh sb="8" eb="10">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -763,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -774,10 +781,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -24968,12 +24971,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25229,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AM2" s="7">
         <v>0</v>
@@ -25240,7 +25243,7 @@
     </row>
     <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A10" si="0">ROW()-2+100000</f>
+        <f t="shared" ref="A3:A7" si="0">ROW()-2+100000</f>
         <v>100001</v>
       </c>
       <c r="B3" s="3">
@@ -25368,7 +25371,7 @@
         <v>100002</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B10" si="1">INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
+        <f>INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
         <v>100002</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -25486,127 +25489,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>100003</v>
       </c>
-      <c r="B5" s="10">
-        <f t="shared" si="1"/>
+      <c r="B5" s="3">
+        <f>INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
         <v>100003</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>80</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>110</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>70</v>
       </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>50</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="11">
+      <c r="Y5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="5">
         <v>20</v>
       </c>
-      <c r="AC5" s="11">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>20</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AF5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>-50</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>-20</v>
+      </c>
+      <c r="AL5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="11">
+      <c r="AM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -25616,7 +25619,7 @@
         <v>100004</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
         <v>100004</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -25632,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -25641,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -25662,67 +25665,67 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AB6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="5">
         <v>20</v>
       </c>
-      <c r="AC6" s="5">
-        <v>20</v>
-      </c>
-      <c r="AD6" s="5">
+      <c r="AF6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="5">
         <v>10</v>
       </c>
-      <c r="AE6" s="5">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>30</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>20</v>
-      </c>
       <c r="AH6" s="5">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="AI6" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="5">
         <v>0</v>
       </c>
       <c r="AK6" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>44</v>
@@ -25740,7 +25743,7 @@
         <v>100005</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX(B:B,MATCH(100000,B:B,0),1)+(ROW()-MATCH(100000,B:B,0))</f>
         <v>100005</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -25756,7 +25759,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -25765,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -25792,25 +25795,25 @@
         <v>0</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>7</v>
@@ -25819,25 +25822,25 @@
         <v>7</v>
       </c>
       <c r="AB7" s="5">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="5">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AD7" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE7" s="5">
         <v>20</v>
       </c>
       <c r="AF7" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AH7" s="5">
-        <v>30</v>
+        <v>-50</v>
       </c>
       <c r="AI7" s="5">
         <v>0</v>
@@ -25846,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AL7" s="4" t="s">
         <v>45</v>
@@ -25855,378 +25858,6 @@
         <v>0</v>
       </c>
       <c r="AN7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>100006</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="1"/>
-        <v>100006</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>70</v>
-      </c>
-      <c r="R8" s="3">
-        <v>30</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>100007</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="1"/>
-        <v>100007</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>90</v>
-      </c>
-      <c r="R9" s="3">
-        <v>30</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>20</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>100008</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="1"/>
-        <v>100008</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>80</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>30</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F70E92-478E-4FB6-BB1D-A324E6C87397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C253CDE-27BB-493B-8EFB-590FFA7384E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -1268,10 +1268,10 @@
   </sheetPr>
   <dimension ref="A1:AX164"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>120</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>80</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>180</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -9943,31 +9943,31 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>60</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -10097,31 +10097,31 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>50</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>50</v>
       </c>
       <c r="R84" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S84" s="3">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -14279,7 +14279,7 @@
         <v>70</v>
       </c>
       <c r="R85" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S85" s="3">
         <v>0</v>
@@ -14409,31 +14409,31 @@
         <v>0</v>
       </c>
       <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
         <v>70</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3">
-        <v>0</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3">
-        <v>0</v>
       </c>
       <c r="S86" s="3">
         <v>0</v>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -14587,7 +14587,7 @@
         <v>50</v>
       </c>
       <c r="R87" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="S87" s="3">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -14741,7 +14741,7 @@
         <v>70</v>
       </c>
       <c r="R88" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S88" s="3">
         <v>0</v>
@@ -14871,31 +14871,31 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>50</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -25188,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K156" s="3">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>50</v>
       </c>
       <c r="R156" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S156" s="3">
         <v>0</v>
@@ -25342,7 +25342,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>70</v>
       </c>
       <c r="R157" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S157" s="3">
         <v>0</v>
@@ -25496,31 +25496,31 @@
         <v>0</v>
       </c>
       <c r="J158" s="3">
+        <v>0</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0</v>
+      </c>
+      <c r="L158" s="3">
+        <v>0</v>
+      </c>
+      <c r="M158" s="3">
+        <v>0</v>
+      </c>
+      <c r="N158" s="3">
+        <v>0</v>
+      </c>
+      <c r="O158" s="3">
+        <v>0</v>
+      </c>
+      <c r="P158" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>0</v>
+      </c>
+      <c r="R158" s="3">
         <v>80</v>
-      </c>
-      <c r="K158" s="3">
-        <v>0</v>
-      </c>
-      <c r="L158" s="3">
-        <v>0</v>
-      </c>
-      <c r="M158" s="3">
-        <v>0</v>
-      </c>
-      <c r="N158" s="3">
-        <v>0</v>
-      </c>
-      <c r="O158" s="3">
-        <v>0</v>
-      </c>
-      <c r="P158" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="3">
-        <v>0</v>
-      </c>
-      <c r="R158" s="3">
-        <v>0</v>
       </c>
       <c r="S158" s="3">
         <v>0</v>
@@ -25650,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K159" s="3">
         <v>0</v>
@@ -25674,7 +25674,7 @@
         <v>50</v>
       </c>
       <c r="R159" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S159" s="3">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K160" s="3">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>70</v>
       </c>
       <c r="R160" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S160" s="3">
         <v>0</v>
@@ -25958,31 +25958,31 @@
         <v>0</v>
       </c>
       <c r="J161" s="3">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+      <c r="M161" s="3">
+        <v>0</v>
+      </c>
+      <c r="N161" s="3">
+        <v>0</v>
+      </c>
+      <c r="O161" s="3">
+        <v>0</v>
+      </c>
+      <c r="P161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>0</v>
+      </c>
+      <c r="R161" s="3">
         <v>80</v>
-      </c>
-      <c r="K161" s="3">
-        <v>0</v>
-      </c>
-      <c r="L161" s="3">
-        <v>0</v>
-      </c>
-      <c r="M161" s="3">
-        <v>0</v>
-      </c>
-      <c r="N161" s="3">
-        <v>0</v>
-      </c>
-      <c r="O161" s="3">
-        <v>0</v>
-      </c>
-      <c r="P161" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="3">
-        <v>0</v>
-      </c>
-      <c r="R161" s="3">
-        <v>0</v>
       </c>
       <c r="S161" s="3">
         <v>0</v>
@@ -26112,7 +26112,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K162" s="3">
         <v>0</v>
@@ -26136,7 +26136,7 @@
         <v>50</v>
       </c>
       <c r="R162" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S162" s="3">
         <v>0</v>
@@ -26266,7 +26266,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
@@ -26290,7 +26290,7 @@
         <v>70</v>
       </c>
       <c r="R163" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S163" s="3">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>0</v>
       </c>
       <c r="J164" s="3">
+        <v>0</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="L164" s="3">
+        <v>0</v>
+      </c>
+      <c r="M164" s="3">
+        <v>0</v>
+      </c>
+      <c r="N164" s="3">
+        <v>0</v>
+      </c>
+      <c r="O164" s="3">
+        <v>0</v>
+      </c>
+      <c r="P164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="3">
+        <v>0</v>
+      </c>
+      <c r="R164" s="3">
         <v>70</v>
-      </c>
-      <c r="K164" s="3">
-        <v>0</v>
-      </c>
-      <c r="L164" s="3">
-        <v>0</v>
-      </c>
-      <c r="M164" s="3">
-        <v>0</v>
-      </c>
-      <c r="N164" s="3">
-        <v>0</v>
-      </c>
-      <c r="O164" s="3">
-        <v>0</v>
-      </c>
-      <c r="P164" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="3">
-        <v>0</v>
-      </c>
-      <c r="R164" s="3">
-        <v>0</v>
       </c>
       <c r="S164" s="3">
         <v>0</v>
@@ -70722,7 +70722,7 @@
   </sheetPr>
   <dimension ref="A1:AX28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>

--- a/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_ContestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63E7269-734D-495C-94F9-6E34C63F55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C0A23-0E0D-4149-9B3F-29A5DEC9C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="720" windowWidth="24420" windowHeight="14295" tabRatio="776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1275" windowWidth="24420" windowHeight="14295" tabRatio="776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_ContestSetData1" sheetId="2" r:id="rId1"/>
@@ -37583,10 +37583,10 @@
   </sheetPr>
   <dimension ref="A1:AX28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37817,31 +37817,31 @@
         <v>30</v>
       </c>
       <c r="T2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>70</v>
@@ -37971,31 +37971,31 @@
         <v>30</v>
       </c>
       <c r="T3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>70</v>
@@ -38125,31 +38125,31 @@
         <v>30</v>
       </c>
       <c r="T4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>70</v>
@@ -38279,31 +38279,31 @@
         <v>30</v>
       </c>
       <c r="T5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>70</v>
@@ -38433,31 +38433,31 @@
         <v>30</v>
       </c>
       <c r="T6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>70</v>
@@ -38587,31 +38587,31 @@
         <v>30</v>
       </c>
       <c r="T7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>70</v>
@@ -38741,31 +38741,31 @@
         <v>30</v>
       </c>
       <c r="T8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>70</v>
@@ -38895,31 +38895,31 @@
         <v>30</v>
       </c>
       <c r="T9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="5" t="s">
         <v>70</v>
@@ -39049,31 +39049,31 @@
         <v>30</v>
       </c>
       <c r="T10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="5" t="s">
         <v>70</v>
@@ -39202,31 +39202,31 @@
         <v>30</v>
       </c>
       <c r="T11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>70</v>
@@ -39356,31 +39356,31 @@
         <v>30</v>
       </c>
       <c r="T12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>70</v>
@@ -39510,31 +39510,31 @@
         <v>30</v>
       </c>
       <c r="T13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="5" t="s">
         <v>70</v>
@@ -39664,31 +39664,31 @@
         <v>30</v>
       </c>
       <c r="T14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>70</v>
@@ -39818,31 +39818,31 @@
         <v>30</v>
       </c>
       <c r="T15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>70</v>
@@ -39972,31 +39972,31 @@
         <v>30</v>
       </c>
       <c r="T16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="5" t="s">
         <v>70</v>
@@ -40126,31 +40126,31 @@
         <v>30</v>
       </c>
       <c r="T17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>70</v>
@@ -40280,31 +40280,31 @@
         <v>30</v>
       </c>
       <c r="T18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>70</v>
@@ -40434,31 +40434,31 @@
         <v>30</v>
       </c>
       <c r="T19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>70</v>
@@ -40587,31 +40587,31 @@
         <v>30</v>
       </c>
       <c r="T20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>70</v>
@@ -40741,31 +40741,31 @@
         <v>30</v>
       </c>
       <c r="T21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="5" t="s">
         <v>70</v>
@@ -40895,31 +40895,31 @@
         <v>30</v>
       </c>
       <c r="T22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="5" t="s">
         <v>70</v>
@@ -41049,31 +41049,31 @@
         <v>30</v>
       </c>
       <c r="T23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="5" t="s">
         <v>70</v>
@@ -41203,31 +41203,31 @@
         <v>30</v>
       </c>
       <c r="T24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="5" t="s">
         <v>70</v>
@@ -41357,31 +41357,31 @@
         <v>30</v>
       </c>
       <c r="T25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="5" t="s">
         <v>70</v>
@@ -41511,31 +41511,31 @@
         <v>30</v>
       </c>
       <c r="T26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="5" t="s">
         <v>70</v>
@@ -41665,31 +41665,31 @@
         <v>30</v>
       </c>
       <c r="T27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="5" t="s">
         <v>70</v>
@@ -41819,31 +41819,31 @@
         <v>30</v>
       </c>
       <c r="T28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>70</v>
@@ -74971,7 +74971,7 @@
   </sheetPr>
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
